--- a/Week3/Homeworks/Homework6/ABCBank.xlsx
+++ b/Week3/Homeworks/Homework6/ABCBank.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gulnu\Desktop\java-camp-2022\Week3\Homeworks\Homework6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{820F8909-45B2-4F8A-AF71-55CC783A1760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74593E70-EAD1-4911-BADA-CE7B2A5C5F83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{13625E04-E339-41B5-9E5D-839F4EBE250F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{13625E04-E339-41B5-9E5D-839F4EBE250F}"/>
   </bookViews>
   <sheets>
     <sheet name="Musteriler" sheetId="1" r:id="rId1"/>
+    <sheet name="GercekMusteriler" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,9 +37,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>id</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>MusteriNo</t>
+  </si>
+  <si>
+    <t>KanalId</t>
+  </si>
+  <si>
+    <t>MusteriId</t>
+  </si>
+  <si>
+    <t>Ad</t>
+  </si>
+  <si>
+    <t>Soyad</t>
+  </si>
+  <si>
+    <t>TcKimlikNo</t>
   </si>
 </sst>
 </file>
@@ -391,20 +410,65 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01F7BD45-E0BD-4B86-B53E-36358E5B6D54}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="2" max="2" width="11.08984375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{225FF7CD-0B85-4BF0-A9D6-98798F6AD2E0}">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="3" max="3" width="8.7265625" customWidth="1"/>
+    <col min="4" max="4" width="10.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Week3/Homeworks/Homework6/ABCBank.xlsx
+++ b/Week3/Homeworks/Homework6/ABCBank.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gulnu\Desktop\java-camp-2022\Week3\Homeworks\Homework6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74593E70-EAD1-4911-BADA-CE7B2A5C5F83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1568ADE5-B828-473E-B782-A1D30142AF30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{13625E04-E339-41B5-9E5D-839F4EBE250F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{13625E04-E339-41B5-9E5D-839F4EBE250F}"/>
   </bookViews>
   <sheets>
     <sheet name="Musteriler" sheetId="1" r:id="rId1"/>
     <sheet name="GercekMusteriler" sheetId="3" r:id="rId2"/>
+    <sheet name="TuzelKisiler" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>Id</t>
   </si>
@@ -58,6 +59,12 @@
   </si>
   <si>
     <t>TcKimlikNo</t>
+  </si>
+  <si>
+    <t>Unvan</t>
+  </si>
+  <si>
+    <t>VergiNo</t>
   </si>
 </sst>
 </file>
@@ -442,7 +449,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{225FF7CD-0B85-4BF0-A9D6-98798F6AD2E0}">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
@@ -471,4 +478,33 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4549E827-A3CD-42B4-BF41-EC7ECEB97B94}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.90625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Week3/Homeworks/Homework6/ABCBank.xlsx
+++ b/Week3/Homeworks/Homework6/ABCBank.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gulnu\Desktop\java-camp-2022\Week3\Homeworks\Homework6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1568ADE5-B828-473E-B782-A1D30142AF30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19F6B5A6-0F8D-4B68-8423-F9CCCC3E71CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{13625E04-E339-41B5-9E5D-839F4EBE250F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{13625E04-E339-41B5-9E5D-839F4EBE250F}"/>
   </bookViews>
   <sheets>
     <sheet name="Musteriler" sheetId="1" r:id="rId1"/>
     <sheet name="GercekMusteriler" sheetId="3" r:id="rId2"/>
     <sheet name="TuzelKisiler" sheetId="4" r:id="rId3"/>
+    <sheet name="Adresler" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
     <t>Id</t>
   </si>
@@ -65,6 +66,9 @@
   </si>
   <si>
     <t>VergiNo</t>
+  </si>
+  <si>
+    <t>AdresDetay</t>
   </si>
 </sst>
 </file>
@@ -484,7 +488,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4549E827-A3CD-42B4-BF41-EC7ECEB97B94}">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -507,4 +511,34 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4324911E-DB72-4A64-8532-B9085CB17871}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="11.7265625" customWidth="1"/>
+    <col min="3" max="3" width="11.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Week3/Homeworks/Homework6/ABCBank.xlsx
+++ b/Week3/Homeworks/Homework6/ABCBank.xlsx
@@ -8,15 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gulnu\Desktop\java-camp-2022\Week3\Homeworks\Homework6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19F6B5A6-0F8D-4B68-8423-F9CCCC3E71CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A005F2D4-4ECD-41CE-9FE7-FFDA0A1716E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{13625E04-E339-41B5-9E5D-839F4EBE250F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="6" xr2:uid="{13625E04-E339-41B5-9E5D-839F4EBE250F}"/>
   </bookViews>
   <sheets>
     <sheet name="Musteriler" sheetId="1" r:id="rId1"/>
     <sheet name="GercekMusteriler" sheetId="3" r:id="rId2"/>
     <sheet name="TuzelKisiler" sheetId="4" r:id="rId3"/>
     <sheet name="Adresler" sheetId="5" r:id="rId4"/>
+    <sheet name="Bilancolar" sheetId="6" r:id="rId5"/>
+    <sheet name="TicariFaaliyetler" sheetId="7" r:id="rId6"/>
+    <sheet name="Kanallar" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
   <si>
     <t>Id</t>
   </si>
@@ -69,6 +72,18 @@
   </si>
   <si>
     <t>AdresDetay</t>
+  </si>
+  <si>
+    <t>Tarih</t>
+  </si>
+  <si>
+    <t>Tutar</t>
+  </si>
+  <si>
+    <t>GercekMusteriId</t>
+  </si>
+  <si>
+    <t>BaslangicTarihi</t>
   </si>
 </sst>
 </file>
@@ -517,7 +532,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4324911E-DB72-4A64-8532-B9085CB17871}">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -541,4 +556,89 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53A75EF8-51DB-4AF2-B45B-DEF0A7EA9C8D}">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="9.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6633A84A-A726-42A6-BA38-956992A187B6}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="16.6328125" customWidth="1"/>
+    <col min="3" max="3" width="14.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFE08489-6CF8-421A-8FAD-E8637744491B}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Week3/Homeworks/Homework6/ABCBank.xlsx
+++ b/Week3/Homeworks/Homework6/ABCBank.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gulnu\Desktop\java-camp-2022\Week3\Homeworks\Homework6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A005F2D4-4ECD-41CE-9FE7-FFDA0A1716E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90808B8C-8355-4171-989B-68C776CD3078}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="6" xr2:uid="{13625E04-E339-41B5-9E5D-839F4EBE250F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="7" xr2:uid="{13625E04-E339-41B5-9E5D-839F4EBE250F}"/>
   </bookViews>
   <sheets>
     <sheet name="Musteriler" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Bilancolar" sheetId="6" r:id="rId5"/>
     <sheet name="TicariFaaliyetler" sheetId="7" r:id="rId6"/>
     <sheet name="Kanallar" sheetId="8" r:id="rId7"/>
+    <sheet name="Sendikalar" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
   <si>
     <t>Id</t>
   </si>
@@ -624,15 +625,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFE08489-6CF8-421A-8FAD-E8637744491B}">
   <dimension ref="A1:B1"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9D7444F-9ACB-47EB-A69D-74F8939272A2}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.81640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
